--- a/results/013-ms1-pathways-pmk1.xlsx
+++ b/results/013-ms1-pathways-pmk1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">MGG_12958T0 [546-562]|[R].ARSATVMGSEVGPYPQK.[S]|1xOxidation [M7];1xPhospho [S3(92.4)]|S548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGG_00800T0 [347-366]|[R].DNRKSHLAPQLSPATADLLR.[S]|2xPhospho [S5(100); S/T]|S351; S/T</t>
   </si>
   <si>
     <t xml:space="preserve">MGG_00800T0 [347-366]|[R].DNRKSHLAPQLSPATADLLR.[S]|2xPhospho [S5(100); S12(100)]|S351; S358</t>
@@ -902,25 +899,25 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.404836581488887</v>
+        <v>0.297484040908024</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.746296086249374</v>
+        <v>0.548397021422337</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.541056369615049</v>
+        <v>0.397581746689382</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.26271721804145</v>
+        <v>0.193051179692441</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -940,34 +937,34 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.237346764908755</v>
       </c>
       <c r="E12" t="n">
-        <v>0.297484040908024</v>
+        <v>0.583009014631364</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.725800200320294</v>
       </c>
       <c r="G12" t="n">
-        <v>0.548397021422337</v>
+        <v>0.811523501106525</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.397581746689382</v>
+        <v>0.364367062054066</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.571781265897856</v>
       </c>
       <c r="K12" t="n">
-        <v>0.193051179692441</v>
+        <v>0.990804949506053</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.202634460339692</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0.161405305679363</v>
       </c>
     </row>
     <row r="13">
@@ -1022,34 +1019,34 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.237346764908755</v>
+        <v>0.0562808323340459</v>
       </c>
       <c r="E14" t="n">
-        <v>0.583009014631364</v>
+        <v>0.0931319629637374</v>
       </c>
       <c r="F14" t="n">
-        <v>0.725800200320294</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.811523501106525</v>
+        <v>0.219831498117066</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.108109382991153</v>
       </c>
       <c r="I14" t="n">
-        <v>0.364367062054066</v>
+        <v>0.385359147996261</v>
       </c>
       <c r="J14" t="n">
-        <v>0.571781265897856</v>
+        <v>0.0755854920434843</v>
       </c>
       <c r="K14" t="n">
-        <v>0.990804949506053</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0.202634460339692</v>
+        <v>0.0422824391846847</v>
       </c>
       <c r="M14" t="n">
-        <v>0.161405305679363</v>
+        <v>0.311322080385071</v>
       </c>
     </row>
     <row r="15">
@@ -1063,34 +1060,34 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0562808323340459</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0931319629637374</v>
+        <v>0.07626409813776</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.219831498117066</v>
+        <v>0.249024277731578</v>
       </c>
       <c r="H15" t="n">
-        <v>0.108109382991153</v>
+        <v>0.106372010229445</v>
       </c>
       <c r="I15" t="n">
-        <v>0.385359147996261</v>
+        <v>0.390049269520851</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0755854920434843</v>
+        <v>0.0720577909684487</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0422824391846847</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.311322080385071</v>
+        <v>0.303056025945257</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1104,31 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07626409813776</v>
+        <v>0.434000166499461</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.249024277731578</v>
+        <v>0.900035146425817</v>
       </c>
       <c r="H16" t="n">
-        <v>0.106372010229445</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.390049269520851</v>
+        <v>0.635787083668942</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0720577909684487</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.475294992695213</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.303056025945257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1148,25 +1145,25 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.434000166499461</v>
+        <v>0.641409775405438</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.900035146425817</v>
+        <v>0.984337974635455</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.635787083668942</v>
+        <v>0.725687981360926</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.475294992695213</v>
+        <v>0.453591365036032</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1186,31 +1183,31 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.0710234135371368</v>
       </c>
       <c r="E18" t="n">
-        <v>0.641409775405438</v>
+        <v>0.70459741233258</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.0829823521637577</v>
       </c>
       <c r="G18" t="n">
-        <v>0.984337974635455</v>
+        <v>0.790204988524311</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.091244199602247</v>
       </c>
       <c r="I18" t="n">
-        <v>0.725687981360926</v>
+        <v>0.873453665944323</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.0784406039892112</v>
       </c>
       <c r="K18" t="n">
-        <v>0.453591365036032</v>
+        <v>0.505011637289837</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.0623892962536166</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -1227,31 +1224,31 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0710234135371368</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.70459741233258</v>
+        <v>0.434000166499461</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0829823521637577</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.790204988524311</v>
+        <v>0.900035146425817</v>
       </c>
       <c r="H19" t="n">
-        <v>0.091244199602247</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.873453665944323</v>
+        <v>0.635787083668942</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0784406039892112</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.505011637289837</v>
+        <v>0.475294992695213</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0623892962536166</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -1265,37 +1262,37 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.706979523976943</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.434000166499461</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.958009115339195</v>
       </c>
       <c r="G20" t="n">
-        <v>0.900035146425817</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.83597512111127</v>
       </c>
       <c r="I20" t="n">
-        <v>0.635787083668942</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.509056898114926</v>
       </c>
       <c r="K20" t="n">
-        <v>0.475294992695213</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0.194720454248346</v>
       </c>
     </row>
     <row r="21">
@@ -1306,37 +1303,37 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.706979523976943</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.445205187698</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.751433075690634</v>
       </c>
       <c r="F21" t="n">
-        <v>0.958009115339195</v>
+        <v>0.72178181851815</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.913910672812107</v>
       </c>
       <c r="H21" t="n">
-        <v>0.83597512111127</v>
+        <v>0.753425377356837</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.509056898114926</v>
+        <v>0.779933216319518</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.384869505172999</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.420227086635411</v>
       </c>
       <c r="M21" t="n">
-        <v>0.194720454248346</v>
+        <v>0.617709836583418</v>
       </c>
     </row>
     <row r="22">
@@ -1391,34 +1388,34 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.445205187698</v>
+        <v>0.409830528952607</v>
       </c>
       <c r="E23" t="n">
-        <v>0.751433075690634</v>
+        <v>0.69158393502743</v>
       </c>
       <c r="F23" t="n">
-        <v>0.72178181851815</v>
+        <v>0.56034780162833</v>
       </c>
       <c r="G23" t="n">
-        <v>0.913910672812107</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.753425377356837</v>
+        <v>0.273480618302115</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0.479543850504593</v>
       </c>
       <c r="J23" t="n">
-        <v>0.779933216319518</v>
+        <v>0.300432567135721</v>
       </c>
       <c r="K23" t="n">
-        <v>0.384869505172999</v>
+        <v>0.199292412626097</v>
       </c>
       <c r="L23" t="n">
-        <v>0.420227086635411</v>
+        <v>0.14104906652522</v>
       </c>
       <c r="M23" t="n">
-        <v>0.617709836583418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1473,34 +1470,34 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.409830528952607</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.69158393502743</v>
+        <v>0.609714631845615</v>
       </c>
       <c r="F25" t="n">
-        <v>0.56034780162833</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.273480618302115</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.479543850504593</v>
+        <v>0.530181092111738</v>
       </c>
       <c r="J25" t="n">
-        <v>0.300432567135721</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.199292412626097</v>
+        <v>0.518464320220921</v>
       </c>
       <c r="L25" t="n">
-        <v>0.14104906652522</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.193232744810349</v>
       </c>
     </row>
     <row r="26">
@@ -1517,31 +1514,31 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.609714631845615</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.262749268937404</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.318712280553607</v>
       </c>
       <c r="I26" t="n">
-        <v>0.530181092111738</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.518464320220921</v>
+        <v>0.4391842446951</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.193232744810349</v>
+        <v>0.556677863370842</v>
       </c>
     </row>
     <row r="27">
@@ -1555,34 +1552,34 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.0433860812565493</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.835155119332602</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.0452436852162059</v>
       </c>
       <c r="G27" t="n">
-        <v>0.262749268937404</v>
+        <v>0.621448244516349</v>
       </c>
       <c r="H27" t="n">
-        <v>0.318712280553607</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0.591270253143066</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.0292318221756713</v>
       </c>
       <c r="K27" t="n">
-        <v>0.4391842446951</v>
+        <v>0.487161039341256</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.556677863370842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1596,31 +1593,31 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0433860812565493</v>
+        <v>0.0394510032313025</v>
       </c>
       <c r="E28" t="n">
-        <v>0.835155119332602</v>
+        <v>0.851190600913558</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0452436852162059</v>
+        <v>0.0411401242049519</v>
       </c>
       <c r="G28" t="n">
-        <v>0.621448244516349</v>
+        <v>0.565083455164572</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.591270253143066</v>
+        <v>0.589424819791617</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0292318221756713</v>
+        <v>0.0265805225480047</v>
       </c>
       <c r="K28" t="n">
-        <v>0.487161039341256</v>
+        <v>0.442975977101306</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.0663107299019232</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
@@ -1637,34 +1634,34 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0394510032313025</v>
+        <v>0.782749233991079</v>
       </c>
       <c r="E29" t="n">
-        <v>0.851190600913558</v>
+        <v>0.471072930704852</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0411401242049519</v>
+        <v>0.744266385035679</v>
       </c>
       <c r="G29" t="n">
-        <v>0.565083455164572</v>
+        <v>0.529016991163518</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.589424819791617</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0265805225480047</v>
+        <v>0.745283882382582</v>
       </c>
       <c r="K29" t="n">
-        <v>0.442975977101306</v>
+        <v>0.226080807411945</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0663107299019232</v>
+        <v>0.445632451199464</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0.295786035808299</v>
       </c>
     </row>
     <row r="30">
@@ -1719,34 +1716,34 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.782749233991079</v>
+        <v>0.128979225522026</v>
       </c>
       <c r="E31" t="n">
-        <v>0.471072930704852</v>
+        <v>0.151330957118429</v>
       </c>
       <c r="F31" t="n">
-        <v>0.744266385035679</v>
+        <v>0.158591245027744</v>
       </c>
       <c r="G31" t="n">
-        <v>0.529016991163518</v>
+        <v>0.180739464665283</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.194690680474869</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.36173098972484</v>
       </c>
       <c r="J31" t="n">
-        <v>0.745283882382582</v>
+        <v>0.161200689748098</v>
       </c>
       <c r="K31" t="n">
-        <v>0.226080807411945</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>0.445632451199464</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.295786035808299</v>
+        <v>0.368609762647626</v>
       </c>
     </row>
     <row r="32">
@@ -1760,74 +1757,33 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.128979225522026</v>
+        <v>0.133666456159032</v>
       </c>
       <c r="E32" t="n">
-        <v>0.151330957118429</v>
+        <v>0.092729089020575</v>
       </c>
       <c r="F32" t="n">
-        <v>0.158591245027744</v>
+        <v>0.120772870997223</v>
       </c>
       <c r="G32" t="n">
-        <v>0.180739464665283</v>
+        <v>0.131722196580423</v>
       </c>
       <c r="H32" t="n">
-        <v>0.194690680474869</v>
+        <v>0.0897622830766061</v>
       </c>
       <c r="I32" t="n">
-        <v>0.36173098972484</v>
+        <v>0.329681660027216</v>
       </c>
       <c r="J32" t="n">
-        <v>0.161200689748098</v>
+        <v>0.169844142418623</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.147098238721371</v>
       </c>
       <c r="M32" t="n">
-        <v>0.368609762647626</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.133666456159032</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.092729089020575</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.120772870997223</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.131722196580423</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.0897622830766061</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.329681660027216</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.169844142418623</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.147098238721371</v>
-      </c>
-      <c r="M33" t="n">
         <v>0.216711570350129</v>
       </c>
     </row>
